--- a/static/pdf/24Q_Excel_Template.xlsx
+++ b/static/pdf/24Q_Excel_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neeraj Project\TDS excel template\FINAL TEMPLATES FOR SOFTWARE\Blank for Software-220925\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A25334-4557-4BCC-9A8E-AE9EA111927A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA07F2D-9559-43F5-B3B1-9EDAC2433751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="LuhgaP+r8Rd5SfXGL0UU0z5cV3G6VKXWMnbuJ4hvIbInUFbsctil9WTOlgTXql4FAXMZPelCJlanw/499wmrwg==" workbookSaltValue="N41F0rbk1oBrMkkTQVy19w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -37,6 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Validations Challan'!$B$2:$H$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Validations Employee'!$B$2:$H$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Company Details'!$A$1:$E$4</definedName>
+    <definedName name="Running_Serial_No___301">'Challan Details'!$A$2:$A$1048576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,45 +113,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="747">
   <si>
     <t>Light yellow Color in header, should be Mandatory</t>
   </si>
@@ -6700,9 +6664,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -6713,26 +6674,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6749,14 +6690,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -6779,11 +6712,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -6794,6 +6747,17 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6875,64 +6839,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>3</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10108,16 +10014,16 @@
     </row>
     <row r="111" spans="1:10" ht="14.4" customHeight="1">
       <c r="A111" s="28"/>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="118" t="s">
         <v>578</v>
       </c>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="95"/>
-      <c r="H111" s="95"/>
-      <c r="I111" s="95"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="118"/>
+      <c r="E111" s="118"/>
+      <c r="F111" s="118"/>
+      <c r="G111" s="118"/>
+      <c r="H111" s="118"/>
+      <c r="I111" s="118"/>
       <c r="J111" s="49"/>
     </row>
     <row r="112" spans="1:10">
@@ -12071,12 +11977,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:B2"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -12088,86 +11994,69 @@
     <col min="11" max="11" width="12.6640625" style="78" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="76" customWidth="1"/>
     <col min="13" max="13" width="21.109375" style="76" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="76" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="34.44140625" style="76" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="76" hidden="1"/>
+    <col min="14" max="16384" width="8.88671875" style="76" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="60">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:13" ht="60">
+      <c r="A1" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="101" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="O1" s="82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:13">
       <c r="H2" s="83">
         <f>SUM(B2:G2)</f>
         <v>0</v>
       </c>
-      <c r="O2" s="80" t="e" cm="1" vm="1">
-        <f t="array" ref="O2">_xlfn._xlws.FILTER(A2:A1048576,A2:A1048576&lt;&gt;"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" s="80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:13">
       <c r="H3" s="83">
         <f t="shared" ref="H3:H4" si="0">SUM(B3:G3)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:13">
       <c r="H4" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="80"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
@@ -12175,7 +12064,7 @@
       <c r="G5" s="84"/>
       <c r="L5" s="81"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -12183,7 +12072,7 @@
       <c r="G6" s="84"/>
       <c r="M6" s="81"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -12192,18 +12081,18 @@
       <c r="L7" s="81"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="727Bod/trl+TzhxTA7y8jgAs2JqbMjDsqOycEvcpsMsOBiS8JbcqukgVi6m6QOlH2e0DDC4QZ+ShbQwG9nQNbQ==" saltValue="5xzVZfjvOmr9YMQY3sVuRA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="z9TLd24ZBIqi/g1JpMF0vgyxbIUFdEsxt5RL4gvqkMVXL2c7BXMuDRJYMg9uii4gcsFhAbUu7ifMHGqIv/bRGA==" saltValue="P9RHLWJFUwVEWkilcKV+qg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:M7" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{D7CF4DA0-00F0-4654-85F3-ECA485165163}">
-      <formula1>$P$2:$P$3</formula1>
+      <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C0D52F65-618D-4764-B757-464B47A3348C}">
           <x14:formula1>
             <xm:f>'Minor Head'!$A$4:$A$5</xm:f>
@@ -12226,7 +12115,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1:B2"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4"/>
@@ -12244,52 +12133,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="48">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="101" t="s">
         <v>742</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="101" t="s">
         <v>743</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="100" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="101" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="107" t="s">
+      <c r="M1" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="107" t="s">
+      <c r="N1" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="107" t="s">
+      <c r="O1" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="P1" s="107" t="s">
+      <c r="P1" s="101" t="s">
         <v>219</v>
       </c>
     </row>
@@ -12307,13 +12196,18 @@
       <c r="L5" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SkH5ibA9bX9hldUrrwtSuTvTd7+PWlikBcQTYsWRPrFYHqEGuO/ziyxaB9wqZSd9rlt0KWn3PQwcufJ162XBmw==" saltValue="5MGDzOkFf5pLn4nryIMqyQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5mJPiXOvxYbpIclfsbBa2sZ201uBrRFLKkmmVX+nYiBD6NVEiKMG4ty3ZDPnMD/UIwhcL+taW40i0xUMjq3wig==" saltValue="MUKdYK+4KAdpmkXKGsG06g==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A1:P5" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{2F31DB10-CC75-4E82-B6F0-22F2F0F4E322}">
+      <formula1>Running_Serial_No___301</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{298C36EE-F3C4-4AE0-9E6C-9C4D2E88ADB0}">
           <x14:formula1>
             <xm:f>Reasons!$A$3:$A$5</xm:f>
@@ -12325,12 +12219,6 @@
             <xm:f>Section!$A$3:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F31DB10-CC75-4E82-B6F0-22F2F0F4E322}">
-          <x14:formula1>
-            <xm:f>_xlfn.ANCHORARRAY('Challan Details'!$O$2)</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12375,290 +12263,290 @@
     <col min="111" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" s="105" customFormat="1" ht="85.8" customHeight="1">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:110" s="99" customFormat="1" ht="85.8" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>742</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="96" t="s">
         <v>704</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="96" t="s">
+      <c r="L1" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="96" t="s">
+      <c r="N1" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="P1" s="96" t="s">
+      <c r="P1" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" s="96" t="s">
+      <c r="Q1" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="R1" s="96" t="s">
+      <c r="R1" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="S1" s="96" t="s">
+      <c r="S1" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="T1" s="96" t="s">
+      <c r="T1" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="U1" s="96" t="s">
+      <c r="U1" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="V1" s="96" t="s">
+      <c r="V1" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="W1" s="98" t="s">
+      <c r="W1" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="X1" s="96" t="s">
+      <c r="X1" s="95" t="s">
         <v>705</v>
       </c>
-      <c r="Y1" s="96" t="s">
+      <c r="Y1" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="96" t="s">
+      <c r="Z1" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="AA1" s="96" t="s">
+      <c r="AA1" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="AD1" s="96" t="s">
+      <c r="AD1" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="AE1" s="96" t="s">
+      <c r="AE1" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="AF1" s="98" t="s">
+      <c r="AF1" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="AG1" s="99" t="s">
+      <c r="AG1" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="99" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="99" t="s">
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="98" t="s">
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="AN1" s="99" t="s">
+      <c r="AN1" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="99" t="s">
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="101" t="s">
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="107" t="s">
         <v>267</v>
       </c>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="101" t="s">
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="101" t="s">
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="101" t="s">
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="101" t="s">
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="101" t="s">
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="BD1" s="103"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="101" t="s">
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="BG1" s="103"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="98" t="s">
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="BJ1" s="98" t="s">
+      <c r="BJ1" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="BK1" s="96" t="s">
+      <c r="BK1" s="95" t="s">
         <v>706</v>
       </c>
-      <c r="BL1" s="96" t="s">
+      <c r="BL1" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="BM1" s="96" t="s">
+      <c r="BM1" s="95" t="s">
         <v>707</v>
       </c>
-      <c r="BN1" s="96" t="s">
+      <c r="BN1" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="BO1" s="98" t="s">
+      <c r="BO1" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="BP1" s="96" t="s">
+      <c r="BP1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="BQ1" s="96" t="s">
+      <c r="BQ1" s="95" t="s">
         <v>279</v>
       </c>
-      <c r="BR1" s="98" t="s">
+      <c r="BR1" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="BS1" s="96" t="s">
+      <c r="BS1" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="BT1" s="98" t="s">
+      <c r="BT1" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="BU1" s="96" t="s">
+      <c r="BU1" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="BV1" s="96" t="s">
+      <c r="BV1" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="BW1" s="96" t="s">
+      <c r="BW1" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="BX1" s="98" t="s">
+      <c r="BX1" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="BY1" s="104" t="s">
+      <c r="BY1" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="BZ1" s="96" t="s">
+      <c r="BZ1" s="95" t="s">
         <v>708</v>
       </c>
-      <c r="CA1" s="96" t="s">
+      <c r="CA1" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="CB1" s="96" t="s">
+      <c r="CB1" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="CC1" s="96" t="s">
+      <c r="CC1" s="95" t="s">
         <v>289</v>
       </c>
-      <c r="CD1" s="96" t="s">
+      <c r="CD1" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="CE1" s="96" t="s">
+      <c r="CE1" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="CF1" s="96" t="s">
+      <c r="CF1" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="CG1" s="96" t="s">
+      <c r="CG1" s="95" t="s">
         <v>293</v>
       </c>
-      <c r="CH1" s="96" t="s">
+      <c r="CH1" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="CI1" s="96" t="s">
+      <c r="CI1" s="95" t="s">
         <v>295</v>
       </c>
-      <c r="CJ1" s="96" t="s">
+      <c r="CJ1" s="95" t="s">
         <v>710</v>
       </c>
-      <c r="CK1" s="96" t="s">
+      <c r="CK1" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="CL1" s="96" t="s">
+      <c r="CL1" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="CM1" s="96" t="s">
+      <c r="CM1" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="CN1" s="96" t="s">
+      <c r="CN1" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="CO1" s="96" t="s">
+      <c r="CO1" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="CP1" s="96" t="s">
+      <c r="CP1" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="CQ1" s="96" t="s">
+      <c r="CQ1" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="CR1" s="96" t="s">
+      <c r="CR1" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="CS1" s="96" t="s">
+      <c r="CS1" s="95" t="s">
         <v>711</v>
       </c>
-      <c r="CT1" s="96" t="s">
+      <c r="CT1" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="CU1" s="96" t="s">
+      <c r="CU1" s="95" t="s">
         <v>702</v>
       </c>
-      <c r="CV1" s="96" t="s">
+      <c r="CV1" s="95" t="s">
         <v>703</v>
       </c>
-      <c r="CW1" s="96" t="s">
+      <c r="CW1" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="CX1" s="96" t="s">
+      <c r="CX1" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="CY1" s="96" t="s">
+      <c r="CY1" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="CZ1" s="104" t="s">
+      <c r="CZ1" s="98" t="s">
         <v>701</v>
       </c>
-      <c r="DA1" s="96" t="s">
+      <c r="DA1" s="95" t="s">
         <v>712</v>
       </c>
       <c r="DE1" s="82" t="s">
@@ -74973,225 +74861,225 @@
     <col min="45" max="16384" width="8.88671875" style="76" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="105" customFormat="1" ht="85.8" customHeight="1">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:44" s="99" customFormat="1" ht="85.8" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="110" t="s">
         <v>717</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="99" t="s">
+      <c r="D1" s="111"/>
+      <c r="E1" s="110" t="s">
         <v>720</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="99" t="s">
+      <c r="F1" s="111"/>
+      <c r="G1" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="99" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="110" t="s">
         <v>722</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="99" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="110" t="s">
         <v>723</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="M1" s="99" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="110" t="s">
         <v>724</v>
       </c>
-      <c r="N1" s="100"/>
-      <c r="O1" s="99" t="s">
+      <c r="N1" s="111"/>
+      <c r="O1" s="110" t="s">
         <v>725</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="99" t="s">
+      <c r="P1" s="111"/>
+      <c r="Q1" s="110" t="s">
         <v>726</v>
       </c>
-      <c r="R1" s="100"/>
-      <c r="S1" s="99" t="s">
+      <c r="R1" s="111"/>
+      <c r="S1" s="110" t="s">
         <v>727</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="99" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="110" t="s">
         <v>728</v>
       </c>
-      <c r="V1" s="100"/>
-      <c r="W1" s="99" t="s">
+      <c r="V1" s="111"/>
+      <c r="W1" s="110" t="s">
         <v>729</v>
       </c>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="111"/>
+      <c r="Y1" s="110" t="s">
         <v>730</v>
       </c>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="99" t="s">
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="110" t="s">
         <v>731</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="99" t="s">
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="110" t="s">
         <v>732</v>
       </c>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="99" t="s">
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="110" t="s">
         <v>733</v>
       </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="99" t="s">
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="110" t="s">
         <v>734</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="99" t="s">
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="110" t="s">
         <v>735</v>
       </c>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="99" t="s">
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="110" t="s">
         <v>736</v>
       </c>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="99" t="s">
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="110" t="s">
         <v>737</v>
       </c>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="99" t="s">
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="110" t="s">
         <v>738</v>
       </c>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="108" t="s">
+      <c r="AP1" s="111"/>
+      <c r="AQ1" s="116" t="s">
         <v>741</v>
       </c>
-      <c r="AR1" s="109"/>
-    </row>
-    <row r="2" spans="1:44" s="110" customFormat="1" ht="30.6">
-      <c r="A2" s="116"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="111" t="s">
+      <c r="AR1" s="117"/>
+    </row>
+    <row r="2" spans="1:44" s="102" customFormat="1" ht="30.6">
+      <c r="A2" s="113"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="L2" s="112" t="s">
+      <c r="L2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="N2" s="112" t="s">
+      <c r="N2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="O2" s="111" t="s">
+      <c r="O2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="P2" s="112" t="s">
+      <c r="P2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="Q2" s="111" t="s">
+      <c r="Q2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="R2" s="112" t="s">
+      <c r="R2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="S2" s="111" t="s">
+      <c r="S2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="T2" s="112" t="s">
+      <c r="T2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="U2" s="111" t="s">
+      <c r="U2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="V2" s="112" t="s">
+      <c r="V2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="W2" s="111" t="s">
+      <c r="W2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="X2" s="112" t="s">
+      <c r="X2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="Y2" s="111" t="s">
+      <c r="Y2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="Z2" s="112" t="s">
+      <c r="Z2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AA2" s="111" t="s">
+      <c r="AA2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AB2" s="112" t="s">
+      <c r="AB2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AC2" s="111" t="s">
+      <c r="AC2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AD2" s="112" t="s">
+      <c r="AD2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AE2" s="111" t="s">
+      <c r="AE2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AF2" s="112" t="s">
+      <c r="AF2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AG2" s="111" t="s">
+      <c r="AG2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AH2" s="112" t="s">
+      <c r="AH2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AI2" s="111" t="s">
+      <c r="AI2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AJ2" s="112" t="s">
+      <c r="AJ2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AK2" s="111" t="s">
+      <c r="AK2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AL2" s="112" t="s">
+      <c r="AL2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AM2" s="111" t="s">
+      <c r="AM2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AN2" s="112" t="s">
+      <c r="AN2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AO2" s="111" t="s">
+      <c r="AO2" s="103" t="s">
         <v>718</v>
       </c>
-      <c r="AP2" s="112" t="s">
+      <c r="AP2" s="104" t="s">
         <v>719</v>
       </c>
-      <c r="AQ2" s="113" t="s">
+      <c r="AQ2" s="105" t="s">
         <v>718</v>
       </c>
-      <c r="AR2" s="114" t="s">
+      <c r="AR2" s="106" t="s">
         <v>719</v>
       </c>
     </row>
@@ -75248,6 +75136,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NrIAMc8FqII/PGvm0ym3fWz87+4KUvDzueqKVrcFPhi69PhBkDhI4wW75Z0Wz4b0PjYnEtJHWH7ZIywZFvYbhQ==" saltValue="rfRt+UzXkwjfIkjyjGPw+A==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="23">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="AQ1:AR1"/>
@@ -75264,13 +75159,6 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="AS2:FK2">
     <cfRule type="duplicateValues" dxfId="0" priority="5" stopIfTrue="1"/>
